--- a/Age-demographics_RO_2019.xlsx
+++ b/Age-demographics_RO_2019.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\const\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\const\Documents\Proiect_George\Statistici_Judete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F68758-296E-4E02-B6DB-CDA7155D8E49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919138CA-8184-4D7C-801D-523D58ECA7AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16635" yWindow="5160" windowWidth="10665" windowHeight="9090" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="2" r:id="rId1"/>
     <sheet name="Target market" sheetId="1" r:id="rId2"/>
     <sheet name="2015" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="87">
   <si>
     <t>Target</t>
   </si>
@@ -217,6 +217,72 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Bistrița-Năsăud</t>
+  </si>
+  <si>
+    <t>Maramureș</t>
+  </si>
+  <si>
+    <t>Sălaj</t>
+  </si>
+  <si>
+    <t>Brașov</t>
+  </si>
+  <si>
+    <t>Mureș</t>
+  </si>
+  <si>
+    <t>Bacău</t>
+  </si>
+  <si>
+    <t>Botoșani</t>
+  </si>
+  <si>
+    <t>Iași</t>
+  </si>
+  <si>
+    <t>Neamț</t>
+  </si>
+  <si>
+    <t>Brăila</t>
+  </si>
+  <si>
+    <t>Buzău</t>
+  </si>
+  <si>
+    <t>Constanța</t>
+  </si>
+  <si>
+    <t>Galați</t>
+  </si>
+  <si>
+    <t>Argeș</t>
+  </si>
+  <si>
+    <t>Călărași</t>
+  </si>
+  <si>
+    <t>Dâmbovița</t>
+  </si>
+  <si>
+    <t>Ialomița</t>
+  </si>
+  <si>
+    <t>București</t>
+  </si>
+  <si>
+    <t>Mehedinți</t>
+  </si>
+  <si>
+    <t>Vâlcea</t>
+  </si>
+  <si>
+    <t>Caraș-Severin</t>
+  </si>
+  <si>
+    <t>Timiș</t>
   </si>
 </sst>
 </file>
@@ -972,9 +1038,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1047,6 +1110,7 @@
     <xf numFmtId="1" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1404,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A47" activeCellId="2" sqref="A45:XFD45 A46:XFD46 A47:XFD47"/>
+    <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,36 +1486,36 @@
       <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="58" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="58" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="58" t="s">
+      <c r="J1" s="58"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="59"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="58" t="s">
+      <c r="M1" s="58"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="58" t="s">
+      <c r="P1" s="58"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="59"/>
-      <c r="T1" s="60"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="59"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -1581,8 +1645,8 @@
       <c r="A4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>7</v>
+      <c r="B4" s="63" t="s">
+        <v>65</v>
       </c>
       <c r="C4" s="35">
         <v>107865</v>
@@ -1705,8 +1769,8 @@
       <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>11</v>
+      <c r="B6" s="63" t="s">
+        <v>66</v>
       </c>
       <c r="C6" s="35">
         <v>263625</v>
@@ -1829,8 +1893,8 @@
       <c r="A8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>15</v>
+      <c r="B8" s="63" t="s">
+        <v>67</v>
       </c>
       <c r="C8" s="35">
         <v>84430</v>
@@ -1888,73 +1952,73 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="40">
         <v>190932</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="40">
         <v>134494</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="41">
         <v>325426</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="40">
         <v>13295</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="40">
         <v>8382</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="41">
         <v>21677</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="40">
         <v>8600</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="40">
         <v>7153</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="41">
         <v>15753</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="40">
         <v>5908</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="40">
         <v>5803</v>
       </c>
-      <c r="N9" s="43">
+      <c r="N9" s="42">
         <v>11711</v>
       </c>
-      <c r="O9" s="44">
+      <c r="O9" s="43">
         <v>4507</v>
       </c>
-      <c r="P9" s="41">
+      <c r="P9" s="40">
         <v>4851</v>
       </c>
-      <c r="Q9" s="42">
+      <c r="Q9" s="41">
         <v>9358</v>
       </c>
-      <c r="R9" s="41">
+      <c r="R9" s="40">
         <v>3375</v>
       </c>
-      <c r="S9" s="41">
+      <c r="S9" s="40">
         <v>3625</v>
       </c>
-      <c r="T9" s="42">
+      <c r="T9" s="41">
         <v>7000</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>19</v>
+      <c r="B10" s="63" t="s">
+        <v>68</v>
       </c>
       <c r="C10" s="35">
         <v>389254</v>
@@ -2012,10 +2076,10 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="35">
@@ -2074,10 +2138,10 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="35">
@@ -2136,11 +2200,11 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>23</v>
+      <c r="B13" s="63" t="s">
+        <v>69</v>
       </c>
       <c r="C13" s="35">
         <v>263163</v>
@@ -2198,73 +2262,73 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="44">
         <v>261149</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="44">
         <v>139857</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>401006</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="44">
         <v>16905</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="44">
         <v>6965</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="45">
         <v>23870</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I14" s="44">
         <v>10953</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="44">
         <v>5118</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14" s="45">
         <v>16071</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="44">
         <v>7840</v>
       </c>
-      <c r="M14" s="45">
+      <c r="M14" s="44">
         <v>3844</v>
       </c>
-      <c r="N14" s="47">
+      <c r="N14" s="46">
         <v>11684</v>
       </c>
-      <c r="O14" s="48">
+      <c r="O14" s="47">
         <v>5844</v>
       </c>
-      <c r="P14" s="45">
+      <c r="P14" s="44">
         <v>2931</v>
       </c>
-      <c r="Q14" s="46">
+      <c r="Q14" s="45">
         <v>8775</v>
       </c>
-      <c r="R14" s="45">
+      <c r="R14" s="44">
         <v>4201</v>
       </c>
-      <c r="S14" s="45">
+      <c r="S14" s="44">
         <v>2261</v>
       </c>
-      <c r="T14" s="46">
+      <c r="T14" s="45">
         <v>6462</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="50" t="s">
-        <v>25</v>
+      <c r="B15" s="63" t="s">
+        <v>70</v>
       </c>
       <c r="C15" s="35">
         <v>252646</v>
@@ -2322,11 +2386,11 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="40" t="s">
-        <v>26</v>
+      <c r="B16" s="63" t="s">
+        <v>71</v>
       </c>
       <c r="C16" s="35">
         <v>155423</v>
@@ -2384,11 +2448,11 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="40" t="s">
-        <v>27</v>
+      <c r="B17" s="63" t="s">
+        <v>72</v>
       </c>
       <c r="C17" s="35">
         <v>369557</v>
@@ -2446,11 +2510,11 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>28</v>
+      <c r="B18" s="63" t="s">
+        <v>73</v>
       </c>
       <c r="C18" s="35">
         <v>156005</v>
@@ -2508,10 +2572,10 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="35">
@@ -2570,10 +2634,10 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="50" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="35">
@@ -2632,73 +2696,73 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="41">
+      <c r="B21" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="40">
         <v>178184</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="40">
         <v>111353</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="41">
         <v>289537</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="40">
         <v>14082</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="40">
         <v>6840</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="41">
         <v>20922</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="40">
         <v>8198</v>
       </c>
-      <c r="J21" s="41">
+      <c r="J21" s="40">
         <v>5325</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="41">
         <v>13523</v>
       </c>
-      <c r="L21" s="41">
+      <c r="L21" s="40">
         <v>6549</v>
       </c>
-      <c r="M21" s="41">
+      <c r="M21" s="40">
         <v>5260</v>
       </c>
-      <c r="N21" s="43">
+      <c r="N21" s="42">
         <v>11809</v>
       </c>
-      <c r="O21" s="44">
+      <c r="O21" s="43">
         <v>5069</v>
       </c>
-      <c r="P21" s="41">
+      <c r="P21" s="40">
         <v>4439</v>
       </c>
-      <c r="Q21" s="42">
+      <c r="Q21" s="41">
         <v>9508</v>
       </c>
-      <c r="R21" s="41">
+      <c r="R21" s="40">
         <v>3916</v>
       </c>
-      <c r="S21" s="41">
+      <c r="S21" s="40">
         <v>3784</v>
       </c>
-      <c r="T21" s="42">
+      <c r="T21" s="41">
         <v>7700</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="40" t="s">
-        <v>32</v>
+      <c r="B22" s="63" t="s">
+        <v>75</v>
       </c>
       <c r="C22" s="35">
         <v>158960</v>
@@ -2756,11 +2820,11 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="40" t="s">
-        <v>33</v>
+      <c r="B23" s="63" t="s">
+        <v>76</v>
       </c>
       <c r="C23" s="35">
         <v>454379</v>
@@ -2818,11 +2882,11 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="40" t="s">
-        <v>34</v>
+      <c r="B24" s="63" t="s">
+        <v>77</v>
       </c>
       <c r="C24" s="35">
         <v>273956</v>
@@ -2880,10 +2944,10 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="39" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="35">
@@ -2942,73 +3006,73 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="44">
         <v>116356</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="44">
         <v>204367</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="45">
         <v>320723</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="44">
         <v>8428</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="44">
         <v>13320</v>
       </c>
-      <c r="H26" s="46">
+      <c r="H26" s="45">
         <v>21748</v>
       </c>
-      <c r="I26" s="45">
+      <c r="I26" s="44">
         <v>4267</v>
       </c>
-      <c r="J26" s="45">
+      <c r="J26" s="44">
         <v>9695</v>
       </c>
-      <c r="K26" s="46">
+      <c r="K26" s="45">
         <v>13962</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="44">
         <v>2915</v>
       </c>
-      <c r="M26" s="45">
+      <c r="M26" s="44">
         <v>9102</v>
       </c>
-      <c r="N26" s="47">
+      <c r="N26" s="46">
         <v>12017</v>
       </c>
-      <c r="O26" s="48">
+      <c r="O26" s="47">
         <v>2089</v>
       </c>
-      <c r="P26" s="45">
+      <c r="P26" s="44">
         <v>8019</v>
       </c>
-      <c r="Q26" s="46">
+      <c r="Q26" s="45">
         <v>10108</v>
       </c>
-      <c r="R26" s="45">
+      <c r="R26" s="44">
         <v>1628</v>
       </c>
-      <c r="S26" s="45">
+      <c r="S26" s="44">
         <v>6728</v>
       </c>
-      <c r="T26" s="46">
+      <c r="T26" s="45">
         <v>8356</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="50" t="s">
-        <v>37</v>
+      <c r="B27" s="63" t="s">
+        <v>78</v>
       </c>
       <c r="C27" s="35">
         <v>266943</v>
@@ -3066,11 +3130,11 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="40" t="s">
-        <v>38</v>
+      <c r="B28" s="63" t="s">
+        <v>79</v>
       </c>
       <c r="C28" s="35">
         <v>102978</v>
@@ -3128,11 +3192,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="40" t="s">
-        <v>39</v>
+      <c r="B29" s="63" t="s">
+        <v>80</v>
       </c>
       <c r="C29" s="35">
         <v>138390</v>
@@ -3190,10 +3254,10 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="39" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="35">
@@ -3252,11 +3316,11 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="40" t="s">
-        <v>41</v>
+      <c r="B31" s="63" t="s">
+        <v>81</v>
       </c>
       <c r="C31" s="35">
         <v>113897</v>
@@ -3314,10 +3378,10 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="39" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="35">
@@ -3376,10 +3440,10 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="50" t="s">
         <v>43</v>
       </c>
       <c r="C33" s="35">
@@ -3438,134 +3502,134 @@
       </c>
     </row>
     <row r="34" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="39" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C34" s="40">
         <v>218963</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="40">
         <v>266313</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="41">
         <v>485276</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="40">
         <v>10090</v>
       </c>
-      <c r="G34" s="41">
+      <c r="G34" s="40">
         <v>13477</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="41">
         <v>23567</v>
       </c>
-      <c r="I34" s="41">
+      <c r="I34" s="40">
         <v>5652</v>
       </c>
-      <c r="J34" s="41">
+      <c r="J34" s="40">
         <v>8810</v>
       </c>
-      <c r="K34" s="42">
+      <c r="K34" s="41">
         <v>14462</v>
       </c>
-      <c r="L34" s="41">
+      <c r="L34" s="40">
         <v>4100</v>
       </c>
-      <c r="M34" s="41">
+      <c r="M34" s="40">
         <v>6731</v>
       </c>
-      <c r="N34" s="43">
+      <c r="N34" s="42">
         <v>10831</v>
       </c>
-      <c r="O34" s="44">
+      <c r="O34" s="43">
         <v>3196</v>
       </c>
-      <c r="P34" s="41">
+      <c r="P34" s="40">
         <v>5465</v>
       </c>
-      <c r="Q34" s="42">
+      <c r="Q34" s="41">
         <v>8661</v>
       </c>
-      <c r="R34" s="41">
+      <c r="R34" s="40">
         <v>2532</v>
       </c>
-      <c r="S34" s="41">
+      <c r="S34" s="40">
         <v>4427</v>
       </c>
-      <c r="T34" s="42">
+      <c r="T34" s="41">
         <v>6959</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="45">
+      <c r="B35" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="44">
         <v>1829897</v>
       </c>
-      <c r="D35" s="45">
+      <c r="D35" s="44">
         <v>0</v>
       </c>
-      <c r="E35" s="46">
+      <c r="E35" s="45">
         <v>1829897</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="44">
         <v>112193</v>
       </c>
-      <c r="G35" s="45">
+      <c r="G35" s="44">
         <v>0</v>
       </c>
-      <c r="H35" s="46">
+      <c r="H35" s="45">
         <v>112193</v>
       </c>
-      <c r="I35" s="45">
+      <c r="I35" s="44">
         <v>68016</v>
       </c>
-      <c r="J35" s="45">
+      <c r="J35" s="44">
         <v>0</v>
       </c>
-      <c r="K35" s="46">
+      <c r="K35" s="45">
         <v>68016</v>
       </c>
-      <c r="L35" s="45">
+      <c r="L35" s="44">
         <v>50571</v>
       </c>
-      <c r="M35" s="45">
+      <c r="M35" s="44">
         <v>0</v>
       </c>
-      <c r="N35" s="47">
+      <c r="N35" s="46">
         <v>50571</v>
       </c>
-      <c r="O35" s="48">
+      <c r="O35" s="47">
         <v>42139</v>
       </c>
-      <c r="P35" s="45">
+      <c r="P35" s="44">
         <v>0</v>
       </c>
-      <c r="Q35" s="46">
+      <c r="Q35" s="45">
         <v>42139</v>
       </c>
-      <c r="R35" s="45">
+      <c r="R35" s="44">
         <v>36617</v>
       </c>
-      <c r="S35" s="45">
+      <c r="S35" s="44">
         <v>0</v>
       </c>
-      <c r="T35" s="46">
+      <c r="T35" s="45">
         <v>36617</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="49" t="s">
         <v>46</v>
       </c>
       <c r="C36" s="35">
@@ -3624,10 +3688,10 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="39" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="35">
@@ -3686,11 +3750,11 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="40" t="s">
-        <v>48</v>
+      <c r="B38" s="63" t="s">
+        <v>83</v>
       </c>
       <c r="C38" s="35">
         <v>111704</v>
@@ -3748,10 +3812,10 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="35">
@@ -3810,11 +3874,11 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="51" t="s">
-        <v>50</v>
+      <c r="B40" s="63" t="s">
+        <v>84</v>
       </c>
       <c r="C40" s="35">
         <v>156918</v>
@@ -3872,73 +3936,73 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="39" t="s">
         <v>20</v>
       </c>
       <c r="B41" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="41">
+      <c r="C41" s="40">
         <v>230316</v>
       </c>
-      <c r="D41" s="41">
+      <c r="D41" s="40">
         <v>187106</v>
       </c>
-      <c r="E41" s="42">
+      <c r="E41" s="41">
         <v>417422</v>
       </c>
-      <c r="F41" s="41">
+      <c r="F41" s="40">
         <v>14440</v>
       </c>
-      <c r="G41" s="41">
+      <c r="G41" s="40">
         <v>11551</v>
       </c>
-      <c r="H41" s="42">
+      <c r="H41" s="41">
         <v>25991</v>
       </c>
-      <c r="I41" s="41">
+      <c r="I41" s="40">
         <v>10154</v>
       </c>
-      <c r="J41" s="41">
+      <c r="J41" s="40">
         <v>9183</v>
       </c>
-      <c r="K41" s="42">
+      <c r="K41" s="41">
         <v>19337</v>
       </c>
-      <c r="L41" s="41">
+      <c r="L41" s="40">
         <v>6936</v>
       </c>
-      <c r="M41" s="41">
+      <c r="M41" s="40">
         <v>6275</v>
       </c>
-      <c r="N41" s="43">
+      <c r="N41" s="42">
         <v>13211</v>
       </c>
-      <c r="O41" s="44">
+      <c r="O41" s="43">
         <v>5317</v>
       </c>
-      <c r="P41" s="41">
+      <c r="P41" s="40">
         <v>5304</v>
       </c>
-      <c r="Q41" s="42">
+      <c r="Q41" s="41">
         <v>10621</v>
       </c>
-      <c r="R41" s="41">
+      <c r="R41" s="40">
         <v>3902</v>
       </c>
-      <c r="S41" s="41">
+      <c r="S41" s="40">
         <v>3646</v>
       </c>
-      <c r="T41" s="42">
+      <c r="T41" s="41">
         <v>7548</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="34" t="s">
-        <v>52</v>
+      <c r="B42" s="63" t="s">
+        <v>85</v>
       </c>
       <c r="C42" s="35">
         <v>145576</v>
@@ -3996,7 +4060,7 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="39" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="34" t="s">
@@ -4058,64 +4122,64 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="45">
+      <c r="B44" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="44">
         <v>416669</v>
       </c>
-      <c r="D44" s="45">
+      <c r="D44" s="44">
         <v>288444</v>
       </c>
-      <c r="E44" s="46">
+      <c r="E44" s="45">
         <v>705113</v>
       </c>
-      <c r="F44" s="45">
+      <c r="F44" s="44">
         <v>23794</v>
       </c>
-      <c r="G44" s="45">
+      <c r="G44" s="44">
         <v>15698</v>
       </c>
-      <c r="H44" s="46">
+      <c r="H44" s="45">
         <v>39492</v>
       </c>
-      <c r="I44" s="45">
+      <c r="I44" s="44">
         <v>15387</v>
       </c>
-      <c r="J44" s="45">
+      <c r="J44" s="44">
         <v>11646</v>
       </c>
-      <c r="K44" s="46">
+      <c r="K44" s="45">
         <v>27033</v>
       </c>
-      <c r="L44" s="45">
+      <c r="L44" s="44">
         <v>10774</v>
       </c>
-      <c r="M44" s="45">
+      <c r="M44" s="44">
         <v>8420</v>
       </c>
-      <c r="N44" s="47">
+      <c r="N44" s="46">
         <v>19194</v>
       </c>
-      <c r="O44" s="48">
+      <c r="O44" s="47">
         <v>7838</v>
       </c>
-      <c r="P44" s="45">
+      <c r="P44" s="44">
         <v>6127</v>
       </c>
-      <c r="Q44" s="46">
+      <c r="Q44" s="45">
         <v>13965</v>
       </c>
-      <c r="R44" s="45">
+      <c r="R44" s="44">
         <v>6096</v>
       </c>
-      <c r="S44" s="45">
+      <c r="S44" s="44">
         <v>4382</v>
       </c>
-      <c r="T44" s="46">
+      <c r="T44" s="45">
         <v>10478</v>
       </c>
     </row>
@@ -4938,8 +5002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A47" activeCellId="2" sqref="A45:XFD45 A46:XFD46 A47:XFD47"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4947,8 +5011,8 @@
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="26" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="11" style="52" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="11" style="51" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -4958,96 +5022,96 @@
       <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="58" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="58" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="58" t="s">
+      <c r="J1" s="58"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="59"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="58" t="s">
+      <c r="M1" s="58"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="58" t="s">
+      <c r="P1" s="58"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="59"/>
-      <c r="T1" s="60"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="59"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="55" t="s">
+      <c r="N2" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="57" t="s">
+      <c r="O2" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="55" t="s">
+      <c r="P2" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="S2" s="55" t="s">
+      <c r="S2" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="T2" s="56" t="s">
+      <c r="T2" s="55" t="s">
         <v>64</v>
       </c>
     </row>
@@ -5055,61 +5119,61 @@
       <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="40">
         <v>281137</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="40">
         <v>290920</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="41">
         <v>572057</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="40">
         <v>13109</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="40">
         <v>15820</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="42">
         <v>28929</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="43">
         <v>9603</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="40">
         <v>12324</v>
       </c>
-      <c r="K3" s="42">
+      <c r="K3" s="41">
         <v>21927</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="40">
         <v>7792</v>
       </c>
-      <c r="M3" s="41">
+      <c r="M3" s="40">
         <v>11511</v>
       </c>
-      <c r="N3" s="43">
+      <c r="N3" s="42">
         <v>19303</v>
       </c>
-      <c r="O3" s="44">
+      <c r="O3" s="43">
         <v>4824</v>
       </c>
-      <c r="P3" s="41">
+      <c r="P3" s="40">
         <v>7579</v>
       </c>
-      <c r="Q3" s="42">
+      <c r="Q3" s="41">
         <v>12403</v>
       </c>
-      <c r="R3" s="41">
+      <c r="R3" s="40">
         <v>3082</v>
       </c>
-      <c r="S3" s="41">
+      <c r="S3" s="40">
         <v>4512</v>
       </c>
-      <c r="T3" s="42">
+      <c r="T3" s="41">
         <v>7594</v>
       </c>
     </row>
@@ -5117,8 +5181,8 @@
       <c r="A4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>7</v>
+      <c r="B4" s="63" t="s">
+        <v>65</v>
       </c>
       <c r="C4" s="35">
         <v>106749</v>
@@ -5241,8 +5305,8 @@
       <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>11</v>
+      <c r="B6" s="63" t="s">
+        <v>66</v>
       </c>
       <c r="C6" s="35">
         <v>269776</v>
@@ -5365,66 +5429,66 @@
       <c r="A8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="45">
+      <c r="B8" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="44">
         <v>86528</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="44">
         <v>132511</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <v>219039</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="44">
         <v>3684</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="44">
         <v>8560</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="46">
         <v>12244</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="47">
         <v>2314</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="44">
         <v>7901</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="45">
         <v>10215</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="44">
         <v>1696</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="44">
         <v>6929</v>
       </c>
-      <c r="N8" s="47">
+      <c r="N8" s="46">
         <v>8625</v>
       </c>
-      <c r="O8" s="48">
+      <c r="O8" s="47">
         <v>1072</v>
       </c>
-      <c r="P8" s="45">
+      <c r="P8" s="44">
         <v>4549</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="45">
         <v>5621</v>
       </c>
-      <c r="R8" s="45">
+      <c r="R8" s="44">
         <v>679</v>
       </c>
-      <c r="S8" s="45">
+      <c r="S8" s="44">
         <v>2629</v>
       </c>
-      <c r="T8" s="46">
+      <c r="T8" s="45">
         <v>3308</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="34" t="s">
@@ -5486,11 +5550,11 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>19</v>
+      <c r="B10" s="63" t="s">
+        <v>68</v>
       </c>
       <c r="C10" s="35">
         <v>394104</v>
@@ -5548,10 +5612,10 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="35">
@@ -5610,10 +5674,10 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="35">
@@ -5672,11 +5736,11 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>23</v>
+      <c r="B13" s="63" t="s">
+        <v>69</v>
       </c>
       <c r="C13" s="35">
         <v>272150</v>
@@ -5734,10 +5798,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="35">
@@ -5796,73 +5860,73 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="41">
+      <c r="B15" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="40">
         <v>260880</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="40">
         <v>343687</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="41">
         <v>604567</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="40">
         <v>13353</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="40">
         <v>17386</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H15" s="42">
         <v>30739</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="43">
         <v>9587</v>
       </c>
-      <c r="J15" s="41">
+      <c r="J15" s="40">
         <v>14754</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="41">
         <v>24341</v>
       </c>
-      <c r="L15" s="41">
+      <c r="L15" s="40">
         <v>9202</v>
       </c>
-      <c r="M15" s="41">
+      <c r="M15" s="40">
         <v>15149</v>
       </c>
-      <c r="N15" s="43">
+      <c r="N15" s="42">
         <v>24351</v>
       </c>
-      <c r="O15" s="44">
+      <c r="O15" s="43">
         <v>5503</v>
       </c>
-      <c r="P15" s="41">
+      <c r="P15" s="40">
         <v>9754</v>
       </c>
-      <c r="Q15" s="42">
+      <c r="Q15" s="41">
         <v>15257</v>
       </c>
-      <c r="R15" s="41">
+      <c r="R15" s="40">
         <v>3186</v>
       </c>
-      <c r="S15" s="41">
+      <c r="S15" s="40">
         <v>6322</v>
       </c>
-      <c r="T15" s="42">
+      <c r="T15" s="41">
         <v>9508</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="40" t="s">
-        <v>26</v>
+      <c r="B16" s="63" t="s">
+        <v>71</v>
       </c>
       <c r="C16" s="35">
         <v>162193</v>
@@ -5920,11 +5984,11 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="40" t="s">
-        <v>27</v>
+      <c r="B17" s="63" t="s">
+        <v>72</v>
       </c>
       <c r="C17" s="35">
         <v>361515</v>
@@ -5982,11 +6046,11 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>28</v>
+      <c r="B18" s="63" t="s">
+        <v>73</v>
       </c>
       <c r="C18" s="35">
         <v>163753</v>
@@ -6044,10 +6108,10 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="35">
@@ -6106,73 +6170,73 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="44">
         <v>155545</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="44">
         <v>234470</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="45">
         <v>390015</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="44">
         <v>7092</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="44">
         <v>12241</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="46">
         <v>19333</v>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="47">
         <v>4411</v>
       </c>
-      <c r="J20" s="45">
+      <c r="J20" s="44">
         <v>11097</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="45">
         <v>15508</v>
       </c>
-      <c r="L20" s="45">
+      <c r="L20" s="44">
         <v>4083</v>
       </c>
-      <c r="M20" s="45">
+      <c r="M20" s="44">
         <v>11218</v>
       </c>
-      <c r="N20" s="47">
+      <c r="N20" s="46">
         <v>15301</v>
       </c>
-      <c r="O20" s="48">
+      <c r="O20" s="47">
         <v>2577</v>
       </c>
-      <c r="P20" s="45">
+      <c r="P20" s="44">
         <v>7982</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="45">
         <v>10559</v>
       </c>
-      <c r="R20" s="45">
+      <c r="R20" s="44">
         <v>1753</v>
       </c>
-      <c r="S20" s="45">
+      <c r="S20" s="44">
         <v>5424</v>
       </c>
-      <c r="T20" s="46">
+      <c r="T20" s="45">
         <v>7177</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>31</v>
+      <c r="B21" s="63" t="s">
+        <v>74</v>
       </c>
       <c r="C21" s="35">
         <v>191245</v>
@@ -6230,11 +6294,11 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="40" t="s">
-        <v>32</v>
+      <c r="B22" s="63" t="s">
+        <v>75</v>
       </c>
       <c r="C22" s="35">
         <v>167606</v>
@@ -6292,11 +6356,11 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="40" t="s">
-        <v>33</v>
+      <c r="B23" s="63" t="s">
+        <v>76</v>
       </c>
       <c r="C23" s="35">
         <v>466297</v>
@@ -6354,11 +6418,11 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="40" t="s">
-        <v>34</v>
+      <c r="B24" s="63" t="s">
+        <v>77</v>
       </c>
       <c r="C24" s="35">
         <v>286419</v>
@@ -6416,10 +6480,10 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="39" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="35">
@@ -6478,10 +6542,10 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="35">
@@ -6540,73 +6604,73 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="41">
+      <c r="B27" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="40">
         <v>275733</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="40">
         <v>324568</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="41">
         <v>600301</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="40">
         <v>13090</v>
       </c>
-      <c r="G27" s="41">
+      <c r="G27" s="40">
         <v>19742</v>
       </c>
-      <c r="H27" s="43">
+      <c r="H27" s="42">
         <v>32832</v>
       </c>
-      <c r="I27" s="44">
+      <c r="I27" s="43">
         <v>8370</v>
       </c>
-      <c r="J27" s="41">
+      <c r="J27" s="40">
         <v>16163</v>
       </c>
-      <c r="K27" s="42">
+      <c r="K27" s="41">
         <v>24533</v>
       </c>
-      <c r="L27" s="41">
+      <c r="L27" s="40">
         <v>7430</v>
       </c>
-      <c r="M27" s="41">
+      <c r="M27" s="40">
         <v>15808</v>
       </c>
-      <c r="N27" s="43">
+      <c r="N27" s="42">
         <v>23238</v>
       </c>
-      <c r="O27" s="44">
+      <c r="O27" s="43">
         <v>4306</v>
       </c>
-      <c r="P27" s="41">
+      <c r="P27" s="40">
         <v>10363</v>
       </c>
-      <c r="Q27" s="42">
+      <c r="Q27" s="41">
         <v>14669</v>
       </c>
-      <c r="R27" s="41">
+      <c r="R27" s="40">
         <v>2773</v>
       </c>
-      <c r="S27" s="41">
+      <c r="S27" s="40">
         <v>6501</v>
       </c>
-      <c r="T27" s="42">
+      <c r="T27" s="41">
         <v>9274</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="40" t="s">
-        <v>38</v>
+      <c r="B28" s="63" t="s">
+        <v>79</v>
       </c>
       <c r="C28" s="35">
         <v>107771</v>
@@ -6664,11 +6728,11 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="40" t="s">
-        <v>39</v>
+      <c r="B29" s="63" t="s">
+        <v>80</v>
       </c>
       <c r="C29" s="35">
         <v>145261</v>
@@ -6726,10 +6790,10 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="39" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="35">
@@ -6788,11 +6852,11 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="40" t="s">
-        <v>41</v>
+      <c r="B31" s="63" t="s">
+        <v>81</v>
       </c>
       <c r="C31" s="35">
         <v>117653</v>
@@ -6850,10 +6914,10 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="39" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="35">
@@ -6912,69 +6976,69 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="45">
+      <c r="C33" s="44">
         <v>116916</v>
       </c>
-      <c r="D33" s="45">
+      <c r="D33" s="44">
         <v>244699</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="45">
         <v>361615</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="44">
         <v>6853</v>
       </c>
-      <c r="G33" s="45">
+      <c r="G33" s="44">
         <v>18692</v>
       </c>
-      <c r="H33" s="47">
+      <c r="H33" s="46">
         <v>25545</v>
       </c>
-      <c r="I33" s="48">
+      <c r="I33" s="47">
         <v>4190</v>
       </c>
-      <c r="J33" s="45">
+      <c r="J33" s="44">
         <v>16576</v>
       </c>
-      <c r="K33" s="46">
+      <c r="K33" s="45">
         <v>20766</v>
       </c>
-      <c r="L33" s="45">
+      <c r="L33" s="44">
         <v>3630</v>
       </c>
-      <c r="M33" s="45">
+      <c r="M33" s="44">
         <v>16771</v>
       </c>
-      <c r="N33" s="47">
+      <c r="N33" s="46">
         <v>20401</v>
       </c>
-      <c r="O33" s="48">
+      <c r="O33" s="47">
         <v>2298</v>
       </c>
-      <c r="P33" s="45">
+      <c r="P33" s="44">
         <v>11044</v>
       </c>
-      <c r="Q33" s="46">
+      <c r="Q33" s="45">
         <v>13342</v>
       </c>
-      <c r="R33" s="45">
+      <c r="R33" s="44">
         <v>1544</v>
       </c>
-      <c r="S33" s="45">
+      <c r="S33" s="44">
         <v>7449</v>
       </c>
-      <c r="T33" s="46">
+      <c r="T33" s="45">
         <v>8993</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="39" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="34" t="s">
@@ -7035,12 +7099,12 @@
         <v>5395</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="40" t="s">
-        <v>45</v>
+      <c r="B35" s="39" t="s">
+        <v>82</v>
       </c>
       <c r="C35" s="35">
         <v>1853638</v>
@@ -7098,72 +7162,72 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36" s="40">
         <v>335558</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="40">
         <v>311062</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="41">
         <v>646620</v>
       </c>
-      <c r="F36" s="41">
+      <c r="F36" s="40">
         <v>15142</v>
       </c>
-      <c r="G36" s="41">
+      <c r="G36" s="40">
         <v>20640</v>
       </c>
-      <c r="H36" s="43">
+      <c r="H36" s="42">
         <v>35782</v>
       </c>
-      <c r="I36" s="44">
+      <c r="I36" s="43">
         <v>10333</v>
       </c>
-      <c r="J36" s="41">
+      <c r="J36" s="40">
         <v>0</v>
       </c>
-      <c r="K36" s="42">
+      <c r="K36" s="41">
         <v>10333</v>
       </c>
-      <c r="L36" s="41">
+      <c r="L36" s="40">
         <v>10052</v>
       </c>
-      <c r="M36" s="41">
+      <c r="M36" s="40">
         <v>0</v>
       </c>
-      <c r="N36" s="43">
+      <c r="N36" s="42">
         <v>10052</v>
       </c>
-      <c r="O36" s="44">
+      <c r="O36" s="43">
         <v>5971</v>
       </c>
-      <c r="P36" s="41">
+      <c r="P36" s="40">
         <v>10899</v>
       </c>
-      <c r="Q36" s="42">
+      <c r="Q36" s="41">
         <v>16870</v>
       </c>
-      <c r="R36" s="41">
+      <c r="R36" s="40">
         <v>3925</v>
       </c>
-      <c r="S36" s="41">
+      <c r="S36" s="40">
         <v>6752</v>
       </c>
-      <c r="T36" s="42">
+      <c r="T36" s="41">
         <v>10677</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="39" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="35">
@@ -7222,11 +7286,11 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="40" t="s">
-        <v>48</v>
+      <c r="B38" s="63" t="s">
+        <v>83</v>
       </c>
       <c r="C38" s="35">
         <v>118461</v>
@@ -7284,10 +7348,10 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="35">
@@ -7346,69 +7410,69 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="45">
+      <c r="B40" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="44">
         <v>162122</v>
       </c>
-      <c r="D40" s="45">
+      <c r="D40" s="44">
         <v>201148</v>
       </c>
-      <c r="E40" s="46">
+      <c r="E40" s="45">
         <v>363270</v>
       </c>
-      <c r="F40" s="45">
+      <c r="F40" s="44">
         <v>7998</v>
       </c>
-      <c r="G40" s="45">
+      <c r="G40" s="44">
         <v>13379</v>
       </c>
-      <c r="H40" s="47">
+      <c r="H40" s="46">
         <v>21377</v>
       </c>
-      <c r="I40" s="48">
+      <c r="I40" s="47">
         <v>5254</v>
       </c>
-      <c r="J40" s="45">
+      <c r="J40" s="44">
         <v>11287</v>
       </c>
-      <c r="K40" s="46">
+      <c r="K40" s="45">
         <v>16541</v>
       </c>
-      <c r="L40" s="45">
+      <c r="L40" s="44">
         <v>4925</v>
       </c>
-      <c r="M40" s="45">
+      <c r="M40" s="44">
         <v>12420</v>
       </c>
-      <c r="N40" s="47">
+      <c r="N40" s="46">
         <v>17345</v>
       </c>
-      <c r="O40" s="48">
+      <c r="O40" s="47">
         <v>2996</v>
       </c>
-      <c r="P40" s="45">
+      <c r="P40" s="44">
         <v>8918</v>
       </c>
-      <c r="Q40" s="46">
+      <c r="Q40" s="45">
         <v>11914</v>
       </c>
-      <c r="R40" s="45">
+      <c r="R40" s="44">
         <v>2014</v>
       </c>
-      <c r="S40" s="45">
+      <c r="S40" s="44">
         <v>5818</v>
       </c>
-      <c r="T40" s="46">
+      <c r="T40" s="45">
         <v>7832</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="39" t="s">
         <v>20</v>
       </c>
       <c r="B41" s="34" t="s">
@@ -7470,11 +7534,11 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="34" t="s">
-        <v>52</v>
+      <c r="B42" s="63" t="s">
+        <v>85</v>
       </c>
       <c r="C42" s="35">
         <v>154076</v>
@@ -7532,7 +7596,7 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="39" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="34" t="s">
@@ -7594,64 +7658,64 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="45">
+      <c r="B44" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="44">
         <v>424168</v>
       </c>
-      <c r="D44" s="45">
+      <c r="D44" s="44">
         <v>271592</v>
       </c>
-      <c r="E44" s="46">
+      <c r="E44" s="45">
         <v>695760</v>
       </c>
-      <c r="F44" s="45">
+      <c r="F44" s="44">
         <v>19475</v>
       </c>
-      <c r="G44" s="45">
+      <c r="G44" s="44">
         <v>14078</v>
       </c>
-      <c r="H44" s="47">
+      <c r="H44" s="46">
         <v>33553</v>
       </c>
-      <c r="I44" s="48">
+      <c r="I44" s="47">
         <v>13080</v>
       </c>
-      <c r="J44" s="45">
+      <c r="J44" s="44">
         <v>10009</v>
       </c>
-      <c r="K44" s="46">
+      <c r="K44" s="45">
         <v>23089</v>
       </c>
-      <c r="L44" s="45">
+      <c r="L44" s="44">
         <v>11622</v>
       </c>
-      <c r="M44" s="45">
+      <c r="M44" s="44">
         <v>9051</v>
       </c>
-      <c r="N44" s="47">
+      <c r="N44" s="46">
         <v>20673</v>
       </c>
-      <c r="O44" s="48">
+      <c r="O44" s="47">
         <v>7488</v>
       </c>
-      <c r="P44" s="45">
+      <c r="P44" s="44">
         <v>5661</v>
       </c>
-      <c r="Q44" s="46">
+      <c r="Q44" s="45">
         <v>13149</v>
       </c>
-      <c r="R44" s="45">
+      <c r="R44" s="44">
         <v>5359</v>
       </c>
-      <c r="S44" s="45">
+      <c r="S44" s="44">
         <v>3740</v>
       </c>
-      <c r="T44" s="46">
+      <c r="T44" s="45">
         <v>9099</v>
       </c>
     </row>
